--- a/Data Collection Tools/12 - Site Lead - Facility Recommendation Tracker.xlsx
+++ b/Data Collection Tools/12 - Site Lead - Facility Recommendation Tracker.xlsx
@@ -2035,6 +2035,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2061,21 +2076,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2758,28 +2758,28 @@
       </c>
     </row>
     <row r="2" spans="2:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="45" t="s">
         <v>390</v>
       </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
     </row>
     <row r="3" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="52" t="s">
         <v>313</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="54" t="s">
         <v>324</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="47"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="25"/>
@@ -2788,20 +2788,20 @@
       <c r="E5" s="25"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="53" t="s">
         <v>229</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="55" t="s">
         <v>388</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="48"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="26"/>
@@ -2819,16 +2819,16 @@
       <c r="D9" s="28" t="s">
         <v>304</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="51" t="s">
         <v>305</v>
       </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
@@ -2840,17 +2840,17 @@
       <c r="D10" s="24" t="s">
         <v>329</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="56" t="s">
         <v>326</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
     </row>
     <row r="11" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
@@ -2862,17 +2862,17 @@
       <c r="D11" s="23" t="s">
         <v>312</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="50" t="s">
         <v>331</v>
       </c>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
     </row>
     <row r="12" spans="2:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="30" t="s">
@@ -2884,17 +2884,17 @@
       <c r="D12" s="31" t="s">
         <v>330</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="50" t="s">
         <v>325</v>
       </c>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
     </row>
     <row r="13" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="30" t="s">
@@ -2906,17 +2906,17 @@
       <c r="D13" s="31" t="s">
         <v>335</v>
       </c>
-      <c r="E13" s="52" t="s">
+      <c r="E13" s="57" t="s">
         <v>336</v>
       </c>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
     </row>
     <row r="14" spans="2:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="30" t="s">
@@ -2928,17 +2928,17 @@
       <c r="D14" s="32" t="s">
         <v>334</v>
       </c>
-      <c r="E14" s="53" t="s">
+      <c r="E14" s="58" t="s">
         <v>327</v>
       </c>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
     </row>
     <row r="15" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
@@ -2950,17 +2950,17 @@
       <c r="D15" s="33" t="s">
         <v>332</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="50" t="s">
         <v>328</v>
       </c>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
     </row>
     <row r="16" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="27" t="s">
@@ -2972,15 +2972,15 @@
       <c r="D16" s="34" t="s">
         <v>333</v>
       </c>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
     </row>
     <row r="17" spans="2:13" s="36" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="35" t="s">
@@ -2992,15 +2992,15 @@
       <c r="D17" s="42" t="s">
         <v>344</v>
       </c>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="27" t="s">
@@ -3012,15 +3012,15 @@
       <c r="D18" s="34" t="s">
         <v>337</v>
       </c>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="27" t="s">
@@ -3032,15 +3032,15 @@
       <c r="D19" s="34" t="s">
         <v>338</v>
       </c>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
     </row>
     <row r="20" spans="2:13" s="36" customFormat="1" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="37" t="s">
@@ -3052,17 +3052,17 @@
       <c r="D20" s="38" t="s">
         <v>339</v>
       </c>
-      <c r="E20" s="57" t="s">
+      <c r="E20" s="49" t="s">
         <v>345</v>
       </c>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
     </row>
     <row r="21" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
@@ -3074,15 +3074,15 @@
       <c r="D21" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
@@ -3094,15 +3094,15 @@
       <c r="D22" s="39" t="s">
         <v>341</v>
       </c>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
     </row>
     <row r="23" spans="2:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="40" t="s">
@@ -3114,17 +3114,17 @@
       <c r="D23" s="41" t="s">
         <v>342</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="47" t="s">
         <v>343</v>
       </c>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
@@ -3133,6 +3133,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C3:E4"/>
+    <mergeCell ref="C6:E7"/>
+    <mergeCell ref="E12:M12"/>
+    <mergeCell ref="E10:M10"/>
+    <mergeCell ref="E11:M11"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="E22:M22"/>
     <mergeCell ref="E23:M23"/>
@@ -3144,13 +3151,6 @@
     <mergeCell ref="E21:M21"/>
     <mergeCell ref="E15:M15"/>
     <mergeCell ref="E9:L9"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C3:E4"/>
-    <mergeCell ref="C6:E7"/>
-    <mergeCell ref="E12:M12"/>
-    <mergeCell ref="E10:M10"/>
-    <mergeCell ref="E11:M11"/>
     <mergeCell ref="E13:M13"/>
     <mergeCell ref="E14:M14"/>
   </mergeCells>
@@ -3164,7 +3164,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F51000" sqref="F51000"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3470,25 +3470,25 @@
           <x14:formula1>
             <xm:f>Picklists!$B$2:$B$179</xm:f>
           </x14:formula1>
-          <xm:sqref>A20001:A1048576</xm:sqref>
+          <xm:sqref>A55840:A1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Picklists!$G$2:$G$35</xm:f>
           </x14:formula1>
-          <xm:sqref>F20001:F1048576</xm:sqref>
+          <xm:sqref>F55840:F1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Picklists!$G$2:$G$37</xm:f>
           </x14:formula1>
-          <xm:sqref>F3:F20000</xm:sqref>
+          <xm:sqref>F3:F55839</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Picklists!$B$2:$B$204</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A20000</xm:sqref>
+          <xm:sqref>A3:A55839</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
